--- a/sample_exam_results.xlsx
+++ b/sample_exam_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\講義・演習資料\L2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB28C6E-B857-421B-A075-160F816C7AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38A4979-9FD4-4617-8EA6-F78F4B92BA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13750" yWindow="5870" windowWidth="19180" windowHeight="11540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14090" yWindow="6210" windowWidth="19180" windowHeight="11540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,64 +53,64 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Student 1</t>
-  </si>
-  <si>
-    <t>Student 2</t>
-  </si>
-  <si>
-    <t>Student 3</t>
-  </si>
-  <si>
-    <t>Student 4</t>
-  </si>
-  <si>
-    <t>Student 5</t>
-  </si>
-  <si>
-    <t>Student 6</t>
-  </si>
-  <si>
-    <t>Student 7</t>
-  </si>
-  <si>
-    <t>Student 8</t>
-  </si>
-  <si>
-    <t>Student 9</t>
-  </si>
-  <si>
-    <t>Student 10</t>
-  </si>
-  <si>
-    <t>Student 11</t>
-  </si>
-  <si>
-    <t>Student 12</t>
-  </si>
-  <si>
-    <t>Student 13</t>
-  </si>
-  <si>
-    <t>Student 14</t>
-  </si>
-  <si>
-    <t>Student 15</t>
-  </si>
-  <si>
-    <t>Student 16</t>
-  </si>
-  <si>
-    <t>Student 17</t>
-  </si>
-  <si>
-    <t>Student 18</t>
-  </si>
-  <si>
-    <t>Student 19</t>
-  </si>
-  <si>
-    <t>Student 20</t>
+    <t>学生1</t>
+  </si>
+  <si>
+    <t>学生2</t>
+  </si>
+  <si>
+    <t>学生3</t>
+  </si>
+  <si>
+    <t>学生4</t>
+  </si>
+  <si>
+    <t>学生5</t>
+  </si>
+  <si>
+    <t>学生6</t>
+  </si>
+  <si>
+    <t>学生7</t>
+  </si>
+  <si>
+    <t>学生8</t>
+  </si>
+  <si>
+    <t>学生9</t>
+  </si>
+  <si>
+    <t>学生10</t>
+  </si>
+  <si>
+    <t>学生11</t>
+  </si>
+  <si>
+    <t>学生12</t>
+  </si>
+  <si>
+    <t>学生13</t>
+  </si>
+  <si>
+    <t>学生14</t>
+  </si>
+  <si>
+    <t>学生15</t>
+  </si>
+  <si>
+    <t>学生16</t>
+  </si>
+  <si>
+    <t>学生17</t>
+  </si>
+  <si>
+    <t>学生18</t>
+  </si>
+  <si>
+    <t>学生19</t>
+  </si>
+  <si>
+    <t>学生20</t>
   </si>
 </sst>
 </file>
@@ -185,6 +185,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -213,20 +227,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{207A5F5D-FC8E-4B04-9AB4-E957DB15FD51}" name="テーブル1" displayName="テーブル1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{207A5F5D-FC8E-4B04-9AB4-E957DB15FD51}" name="テーブル1" displayName="テーブル1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
   <autoFilter ref="A1:F21" xr:uid="{207A5F5D-FC8E-4B04-9AB4-E957DB15FD51}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6B46A57B-6CB7-4898-8FA7-A022942DE207}" name="Name"/>
